--- a/Checklists/Checklist for API testing(PetStore).xlsx
+++ b/Checklists/Checklist for API testing(PetStore).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\Git\Projects\Test-documentation\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74611217-13C2-4D25-864E-7EE81688A136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F8A728-9FBB-4E3C-9E28-E78BE72497B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9ABE7CD8-7ACD-49C6-BAC3-B976FB74FE15}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Failed</t>
   </si>
   <si>
-    <t>Not tested</t>
-  </si>
-  <si>
     <t>Add new pet and put NULL to the filed that cant be NULL(e.g id)</t>
   </si>
   <si>
@@ -156,37 +153,19 @@
   </si>
   <si>
     <t>Unsupported methods</t>
+  </si>
+  <si>
+    <t>Not run</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -200,6 +179,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -207,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,27 +196,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF7CAAC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7CAAC"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -260,78 +231,174 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -644,434 +711,465 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="C15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="9" t="s">
+      <c r="C16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>15</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="C18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>16</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
         <v>17</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="C20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
         <v>18</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
         <v>19</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>20</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
         <v>27</v>
       </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="B30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
         <v>29</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>22</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="B32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
         <v>30</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>23</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="B33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
         <v>31</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>24</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="B34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
         <v>32</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>25</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>26</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>27</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>28</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>29</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>30</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>31</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="B35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>32</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="3"/>
+      <c r="C35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C3:C16">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Not run">
+      <formula>NOT(ISERROR(SEARCH("Not run",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH("Skipped",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C35">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH("Skipped",C18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Not run">
+      <formula>NOT(ISERROR(SEARCH("Not run",C18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",C18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH("Passed",C18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C16 C18:C35" xr:uid="{AB1BEEC0-43A4-4688-968E-92553EF66A3E}">
+      <formula1>"Passed, Failed, Not run, Skipped"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
